--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-dynamic/0_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-dynamic/0_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.013</v>
+        <v>0.019</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.929</v>
+        <v>-1.944</v>
       </c>
       <c r="D4" t="n">
-        <v>-14938.46</v>
+        <v>-10331.58</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.023</v>
+        <v>0.035</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.015</v>
+        <v>0.005</v>
       </c>
       <c r="D5" t="n">
-        <v>-165.22</v>
+        <v>-85.70999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.142</v>
+        <v>2.625</v>
       </c>
       <c r="C6" t="n">
-        <v>9.321</v>
+        <v>7.878</v>
       </c>
       <c r="D6" t="n">
-        <v>196.66</v>
+        <v>200.11</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.198</v>
+        <v>0.184</v>
       </c>
       <c r="C7" t="n">
-        <v>0.614</v>
+        <v>0.546</v>
       </c>
       <c r="D7" t="n">
-        <v>210.1</v>
+        <v>196.74</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>10.979</v>
       </c>
       <c r="C8" t="n">
-        <v>19.045</v>
+        <v>18.558</v>
       </c>
       <c r="D8" t="n">
-        <v>73.47</v>
+        <v>69.03</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.201</v>
+        <v>2.217</v>
       </c>
       <c r="C9" t="n">
-        <v>8.363</v>
+        <v>7.471</v>
       </c>
       <c r="D9" t="n">
-        <v>279.96</v>
+        <v>236.99</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.043</v>
+        <v>11.641</v>
       </c>
       <c r="C10" t="n">
-        <v>104.008</v>
+        <v>73.825</v>
       </c>
       <c r="D10" t="n">
-        <v>476.45</v>
+        <v>534.1799999999999</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.062</v>
+        <v>0.045</v>
       </c>
       <c r="C11" t="n">
-        <v>0.843</v>
+        <v>0.585</v>
       </c>
       <c r="D11" t="n">
-        <v>1259.68</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06900000000000001</v>
+        <v>0.015</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.163</v>
+        <v>-5.245</v>
       </c>
       <c r="D12" t="n">
-        <v>7382.61</v>
+        <v>-35066.67</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.248</v>
+        <v>3.412</v>
       </c>
       <c r="C13" t="n">
-        <v>10.198</v>
+        <v>8.592000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>140.07</v>
+        <v>151.82</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.033765986561775</v>
+        <v>4.426320762861343</v>
       </c>
       <c r="C4" t="n">
-        <v>2.770248025655746</v>
+        <v>4.14786514214107</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.69</v>
+        <v>-6.29</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7204618926286723</v>
+        <v>1.629830524827087</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4812944297895601</v>
+        <v>1.338630447211973</v>
       </c>
       <c r="G4" t="n">
-        <v>-33.2</v>
+        <v>-17.87</v>
       </c>
     </row>
     <row r="5">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.570297083789425</v>
+        <v>2.634593158212668</v>
       </c>
       <c r="C6" t="n">
-        <v>5.904309273346039</v>
+        <v>2.899959513995775</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>10.07</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2348010943112864</v>
+        <v>0.619857142401154</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3552055028439595</v>
+        <v>1.424612956763776</v>
       </c>
       <c r="G6" t="n">
-        <v>51.28</v>
+        <v>129.83</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-dynamic/0_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-dynamic/0_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.019</v>
+        <v>-0.03</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.944</v>
+        <v>-1.22</v>
       </c>
       <c r="D4" t="n">
-        <v>-10331.58</v>
+        <v>3966.67</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.035</v>
+        <v>0.019</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005</v>
+        <v>-0.022</v>
       </c>
       <c r="D5" t="n">
-        <v>-85.70999999999999</v>
+        <v>-215.79</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.625</v>
+        <v>2.756</v>
       </c>
       <c r="C6" t="n">
-        <v>7.878</v>
+        <v>5.939</v>
       </c>
       <c r="D6" t="n">
-        <v>200.11</v>
+        <v>115.49</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.184</v>
+        <v>0.209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.546</v>
+        <v>0.398</v>
       </c>
       <c r="D7" t="n">
-        <v>196.74</v>
+        <v>90.43000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.979</v>
+        <v>8.888</v>
       </c>
       <c r="C8" t="n">
-        <v>18.558</v>
+        <v>15.622</v>
       </c>
       <c r="D8" t="n">
-        <v>69.03</v>
+        <v>75.77</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.217</v>
+        <v>2.651</v>
       </c>
       <c r="C9" t="n">
-        <v>7.471</v>
+        <v>5.195</v>
       </c>
       <c r="D9" t="n">
-        <v>236.99</v>
+        <v>95.95999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.641</v>
+        <v>11.837</v>
       </c>
       <c r="C10" t="n">
-        <v>73.825</v>
+        <v>47.362</v>
       </c>
       <c r="D10" t="n">
-        <v>534.1799999999999</v>
+        <v>300.12</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.585</v>
+        <v>0.296</v>
       </c>
       <c r="D11" t="n">
-        <v>1200</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.015</v>
+        <v>-0.001</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.245</v>
+        <v>-3.006</v>
       </c>
       <c r="D12" t="n">
-        <v>-35066.67</v>
+        <v>300500</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.412</v>
+        <v>3.441</v>
       </c>
       <c r="C13" t="n">
-        <v>8.592000000000001</v>
+        <v>6.882</v>
       </c>
       <c r="D13" t="n">
-        <v>151.82</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.426320762861343</v>
+        <v>2.953495598974682</v>
       </c>
       <c r="C4" t="n">
-        <v>4.14786514214107</v>
+        <v>3.169310473260425</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.29</v>
+        <v>7.31</v>
       </c>
       <c r="E4" t="n">
-        <v>1.629830524827087</v>
+        <v>0.2076016761083851</v>
       </c>
       <c r="F4" t="n">
-        <v>1.338630447211973</v>
+        <v>1.213747047015363</v>
       </c>
       <c r="G4" t="n">
-        <v>-17.87</v>
+        <v>484.65</v>
       </c>
     </row>
     <row r="5">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.634593158212668</v>
+        <v>3.279371732702729</v>
       </c>
       <c r="C6" t="n">
-        <v>2.899959513995775</v>
+        <v>3.424491940421619</v>
       </c>
       <c r="D6" t="n">
-        <v>10.07</v>
+        <v>4.43</v>
       </c>
       <c r="E6" t="n">
-        <v>0.619857142401154</v>
+        <v>0.4430570541507304</v>
       </c>
       <c r="F6" t="n">
-        <v>1.424612956763776</v>
+        <v>0.2105447085278392</v>
       </c>
       <c r="G6" t="n">
-        <v>129.83</v>
+        <v>-52.48</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-dynamic/0_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-static_low-rank_quant-dynamic/0_pruning_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
